--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Цена</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Прораб</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -469,6 +474,11 @@
           <t>123</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,6 +499,11 @@
           <t>123</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -509,6 +524,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -529,6 +549,11 @@
           <t>123</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -547,6 +572,61 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>123</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dedede</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>qwqeq</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>/reload</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Shakhzod</t>
         </is>
       </c>
     </row>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>efewfewf</t>
+          <t>dededede</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dollar</t>
+          <t>summ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shakhzod</t>
+          <t>effrfwwpkp</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>frrfirwfwfwfw</t>
+          <t>dedede</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>summ</t>
+          <t>суммы</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>113</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Shakhzod</t>
+          <t>effrfwwpkp</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>wefdewfewfew</t>
+          <t>qwqeq</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>summ</t>
+          <t>/reload</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Shakhzod</t>
+          <t>effrfwwpkp</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>wqwqwq</t>
+          <t>Salary1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>summ</t>
+          <t>суммы</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shakhzod</t>
+          <t>effrfwwpkp</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dededede</t>
+          <t>ish xaqi1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>summ</t>
+          <t>суммы</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shakhzod</t>
+          <t>effrfwwpkp</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dedede</t>
+          <t>Hwjsjssj</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>суммы</t>
+          <t>доллары</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shakhzod</t>
+          <t>effrfwwpkp</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>qwqeq</t>
+          <t>222222</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/reload</t>
+          <t>суммы</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shakhzod</t>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
         </is>
       </c>
     </row>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,81 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dwdwdw</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>frwrfr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>суммы</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>heyy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>доллары</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>effrfwwpkp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Прораб</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,22 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dededede</t>
+          <t>fregrwegrew</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>summ</t>
+          <t>суммы</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>effrfwwpkp</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
         </is>
       </c>
     </row>
@@ -486,7 +496,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dedede</t>
+          <t>qqq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -496,7 +506,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -504,229 +514,9 @@
           <t>effrfwwpkp</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>qwqeq</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>/reload</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Salary1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ish xaqi1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hwjsjssj</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>доллары</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>222222</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2222</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>dwdwdw</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>frwrfr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>heyy</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>доллары</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
         </is>
       </c>
     </row>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Название</t>
@@ -441,20 +446,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Суммы или доллары</t>
+          <t>Цена (сум)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Цена</t>
+          <t>Цена ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Прораб</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
@@ -462,29 +462,24 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fregrwegrew</t>
+          <t>fewqfwe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>суммы</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>26.04.2021</t>
         </is>
@@ -492,31 +487,207 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>fregrwegrew</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gregre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>reifire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>qqq</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>суммы</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>effrfwwpkp</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>qqq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$300.0003</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,12 +491,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fregrwegrew</t>
+          <t>gregre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,17 +516,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gregre</t>
+          <t>reifire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>reifire</t>
+          <t>qqq</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,42 +561,46 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>qqq</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>300.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qqq</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +610,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -623,69 +627,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>$300.0002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>300.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10000.0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>$300.0003</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fewqfwe</t>
+          <t>reifire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,62 +491,66 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gregre</t>
+          <t>reifire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t>01.05.2021</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>reifire</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>qqq</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,7 +560,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -573,69 +577,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>$50.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>300.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10000.0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$300.0002</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>reifire</t>
+          <t>fewqfwe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,101 +491,251 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>fregrwegrew</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gregre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>reifire</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>qqq</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>qqq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.04.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ish haqqi 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>01.05.2021</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>reifire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01.05.2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>$50.0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$400.0003</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fewqfwe</t>
+          <t>fregrwegrew</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fregrwegrew</t>
+          <t>gregre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,17 +516,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gregre</t>
+          <t>reifire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>reifire</t>
+          <t>qqq</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>qqq</t>
+          <t>reifire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t>17.05.2021</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qqq</t>
+          <t>dollar to summ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t>17.05.2021</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ish haqqi 1</t>
+          <t>deedqwdq</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01.05.2021</t>
+          <t>17.05.2021</t>
         </is>
       </c>
     </row>
@@ -646,44 +646,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>612134</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>01.05.2021</t>
+          <t>18.05.2021</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>jdijdijd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>612134</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>400.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>18.05.2021</t>
         </is>
       </c>
     </row>
@@ -695,17 +693,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>1225271.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -722,12 +720,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$400.0003</t>
+          <t>122.5271</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -736,6 +734,33 @@
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$124.5271</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,17 @@
           <t>Дата</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток денег (сум)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Остаток денег ($)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -466,12 +477,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fregrwegrew</t>
+          <t>gregre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,6 +493,17 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>26.04.2021</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2060000.0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>206.0</t>
         </is>
       </c>
     </row>
@@ -491,22 +513,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gregre</t>
+          <t>reifire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>26.04.2021</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -521,17 +554,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t>17.05.2021</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -541,12 +585,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>qqq</t>
+          <t>jdijdijd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>612134</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,211 +600,142 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.04.2021</t>
+          <t>18.05.2021</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>reifire</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>613136.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.05.2021</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dollar to summ</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>61.3136</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17.05.2021</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>deedqwdq</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>$61.3136</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17.05.2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>reifire</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>612134</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>18.05.2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>jdijdijd</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>612134</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>18.05.2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1225271.0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10000.0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>122.5271</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>$124.5271</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/files/excel/salary_Object1.xlsx
+++ b/files/excel/salary_Object1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gregre</t>
+          <t>fregrwegrew</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>reifire</t>
+          <t>gregre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -554,17 +554,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17.05.2021</t>
+          <t>26.04.2021</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -585,12 +585,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jdijdijd</t>
+          <t>qqq</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>612134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18.05.2021</t>
+          <t>26.04.2021</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -616,36 +616,30 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>reifire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>613136.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>17.05.2021</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -658,84 +652,270 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>dollar to summ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17.05.2021</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>deedqwdq</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17.05.2021</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>reifire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>612134</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18.05.2021</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>jdijdijd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>612134</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>18.05.2021</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1225271.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>10000.0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>61.3136</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$61.3136</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>122.52709999999999</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$124.52709999999999</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
